--- a/data/scheduling_DNN/predict/0.5/result13.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result13.xlsx
@@ -570,10 +570,10 @@
         <v>0.867419958114624</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8988735675811768</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2378847002983093</v>
+        <v>0.0009893295355141163</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8554251194000244</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4037895798683167</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1514814645051956</v>
+        <v>0.2039746642112732</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9077110290527344</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.5131982564926147</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08969203382730484</v>
+        <v>0.1556403338909149</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8789451122283936</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.863225519657135</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1610945165157318</v>
+        <v>0.0002471055777277797</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8622000217437744</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4940345287322998</v>
       </c>
       <c r="W6" t="n">
-        <v>0.147734522819519</v>
+        <v>0.1355458348989487</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8637559413909912</v>
       </c>
       <c r="V7" t="n">
-        <v>0.654965877532959</v>
+        <v>0.3975030183792114</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04359329119324684</v>
+        <v>0.2173917889595032</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9140341281890869</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.5131487250328064</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2605481445789337</v>
+        <v>0.1607091128826141</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8797261714935303</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.5080339312553406</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00415360601618886</v>
+        <v>0.1381551176309586</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8502030372619629</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.499020516872406</v>
       </c>
       <c r="W10" t="n">
-        <v>0.00251287454739213</v>
+        <v>0.1233291625976562</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8700261116027832</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8819411993026733</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1357499063014984</v>
+        <v>0.000141969314427115</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9052560329437256</v>
       </c>
       <c r="V12" t="n">
-        <v>0.782903790473938</v>
+        <v>0.493384838104248</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0149700716137886</v>
+        <v>0.1696378737688065</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.855914831161499</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8676062822341919</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2252922505140305</v>
+        <v>0.0001366900251014158</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8917369842529297</v>
       </c>
       <c r="V14" t="n">
-        <v>0.514474630355835</v>
+        <v>0.8745520710945129</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1423268765211105</v>
+        <v>0.0002953212533611804</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8743319511413574</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.8782522082328796</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2219472527503967</v>
+        <v>1.53684159158729e-05</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8895649909973145</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8591741919517517</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01139004249125719</v>
+        <v>0.000923600688111037</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.899616003036499</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.8663676381111145</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3012315332889557</v>
+        <v>0.001105453819036484</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9128749370574951</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.4097740054130554</v>
       </c>
       <c r="W18" t="n">
-        <v>0.00122621632181108</v>
+        <v>0.2531105577945709</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.850132942199707</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8744646906852722</v>
       </c>
       <c r="W19" t="n">
-        <v>0.122191958129406</v>
+        <v>0.0005920339608564973</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8759419918060303</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.3975760042667389</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1299630701541901</v>
+        <v>0.2288340181112289</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8667349815368652</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.5070619583129883</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1066864505410194</v>
+        <v>0.1293646842241287</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5328369140625</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.5162100791931152</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0007808054215274751</v>
+        <v>0.0002764516393654048</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5367081165313721</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8608881831169128</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01347889471799135</v>
+        <v>0.1050927191972733</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.585831880569458</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4121572375297546</v>
       </c>
       <c r="W24" t="n">
-        <v>0.004743759520351887</v>
+        <v>0.03016288205981255</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5401909351348877</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.3976694047451019</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01862778328359127</v>
+        <v>0.02031238749623299</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5778930187225342</v>
       </c>
       <c r="V26" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4889764189720154</v>
       </c>
       <c r="W26" t="n">
-        <v>0.04226808622479439</v>
+        <v>0.007906161248683929</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5192298889160156</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8760946393013</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01785730570554733</v>
+        <v>0.1273524463176727</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5319809913635254</v>
       </c>
       <c r="V28" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4927529394626617</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0633649155497551</v>
+        <v>0.001538840006105602</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5468580722808838</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.423528254032135</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01208718214184046</v>
+        <v>0.01521024387329817</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.530858039855957</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4040484428405762</v>
       </c>
       <c r="W30" t="n">
-        <v>0.00679874001070857</v>
+        <v>0.01608067378401756</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5272669792175293</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.5132700204849243</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06580424308776855</v>
+        <v>0.0001959148503374308</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5225701332092285</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4887221455574036</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01415752898901701</v>
+        <v>0.001145686255767941</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5110318660736084</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.3974663317203522</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01154247485101223</v>
+        <v>0.01289713103324175</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5161008834838867</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.5171282291412354</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02433384768664837</v>
+        <v>1.055439042829676e-06</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5265629291534424</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4970194399356842</v>
       </c>
       <c r="W35" t="n">
-        <v>1.109123058995465e-05</v>
+        <v>0.0008728177635930479</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5216948986053467</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4235645234584808</v>
       </c>
       <c r="W36" t="n">
-        <v>5.050803156336769e-05</v>
+        <v>0.009629570879042149</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5152590274810791</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.8760865330696106</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08709989488124847</v>
+        <v>0.1301964819431305</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5138399600982666</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.3991687595844269</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01967149041593075</v>
+        <v>0.01314948406070471</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5079770088195801</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4946523606777191</v>
       </c>
       <c r="W39" t="n">
-        <v>0.08876008540391922</v>
+        <v>0.0001775462442310527</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5681521892547607</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.3975554704666138</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02705941535532475</v>
+        <v>0.0291032399982214</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5325798988342285</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4036588668823242</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07550917565822601</v>
+        <v>0.01662063226103783</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4025321006774902</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.5005664825439453</v>
       </c>
       <c r="W42" t="n">
-        <v>6.908714453857101e-07</v>
+        <v>0.009610740467905998</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4053730964660645</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8620533347129822</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001854230766184628</v>
+        <v>0.2085568457841873</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3800070285797119</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.3975148797035217</v>
       </c>
       <c r="W44" t="n">
-        <v>7.89076802902855e-05</v>
+        <v>0.0003065248602069914</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3868329524993896</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.3974799513816833</v>
       </c>
       <c r="W45" t="n">
-        <v>0.1842473745346069</v>
+        <v>0.0001133585828938521</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4187939167022705</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8935865759849548</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0002286251983605325</v>
+        <v>0.2254280745983124</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4050509929656982</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5401543378829956</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0008846150594763458</v>
+        <v>0.0182529129087925</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.389564037322998</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.4945051074028015</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0231170691549778</v>
+        <v>0.01101262774318457</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.38519287109375</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4111016392707825</v>
       </c>
       <c r="W49" t="n">
-        <v>5.092521860206034e-06</v>
+        <v>0.0006712642498314381</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3868429660797119</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4972348511219025</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0002731751301325858</v>
+        <v>0.01218636799603701</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3819510936737061</v>
       </c>
       <c r="V51" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.866117537021637</v>
       </c>
       <c r="W51" t="n">
-        <v>0.3141497075557709</v>
+        <v>0.2344171404838562</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3930759429931641</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.5132597684860229</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06930828094482422</v>
+        <v>0.01444415189325809</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3866920471191406</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.4916838705539703</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07197941839694977</v>
+        <v>0.01102328300476074</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3857598304748535</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8872027993202209</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01644106209278107</v>
+        <v>0.2514450550079346</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3874068260192871</v>
       </c>
       <c r="V55" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8980299830436707</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1563963443040848</v>
+        <v>0.2607360184192657</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3826160430908203</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8727482557296753</v>
       </c>
       <c r="W56" t="n">
-        <v>0.1876730918884277</v>
+        <v>0.2402295917272568</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3872640132904053</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.5298306345939636</v>
       </c>
       <c r="W57" t="n">
-        <v>0.004007235169410706</v>
+        <v>0.02032524161040783</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3787779808044434</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.4040636122226715</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0007845489890314639</v>
+        <v>0.0006393631338141859</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.441910982131958</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.3975123763084412</v>
       </c>
       <c r="W59" t="n">
-        <v>0.005171137396246195</v>
+        <v>0.001971236197277904</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.387160062789917</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4875633716583252</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06459563225507736</v>
+        <v>0.01008082460612059</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3864917755126953</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4016845226287842</v>
       </c>
       <c r="W61" t="n">
-        <v>0.02276717871427536</v>
+        <v>0.0002308195689693093</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8846099376678467</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.8732511401176453</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0527668409049511</v>
+        <v>0.0001290222862735391</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8591771125793457</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.3975434303283691</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1055747866630554</v>
+        <v>0.2131056636571884</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9069371223449707</v>
       </c>
       <c r="V64" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8682379126548767</v>
       </c>
       <c r="W64" t="n">
-        <v>0.01558910869061947</v>
+        <v>0.001497628865763545</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8717629909515381</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.3974844515323639</v>
       </c>
       <c r="W65" t="n">
-        <v>0.03987837582826614</v>
+        <v>0.2249401360750198</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8818800449371338</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.861303985118866</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2287535965442657</v>
+        <v>0.000423374236561358</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.862861156463623</v>
       </c>
       <c r="V67" t="n">
-        <v>0.514564037322998</v>
+        <v>0.496972531080246</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1213108822703362</v>
+        <v>0.1338744908571243</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9229187965393066</v>
       </c>
       <c r="V68" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5291202068328857</v>
       </c>
       <c r="W68" t="n">
-        <v>0.0005367713165469468</v>
+        <v>0.1550773233175278</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8638811111450195</v>
       </c>
       <c r="V69" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8774284720420837</v>
       </c>
       <c r="W69" t="n">
-        <v>0.006549972575157881</v>
+        <v>0.0001835309813031927</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8506851196289062</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.4228986799716949</v>
       </c>
       <c r="W70" t="n">
-        <v>0.001345167518593371</v>
+        <v>0.183001235127449</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8610270023345947</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4968007802963257</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2092327177524567</v>
+        <v>0.1326607465744019</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9200329780578613</v>
       </c>
       <c r="V72" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8936640620231628</v>
       </c>
       <c r="W72" t="n">
-        <v>0.01885662972927094</v>
+        <v>0.0006953197298571467</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8578121662139893</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8758013844490051</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2570739984512329</v>
+        <v>0.0003236119810026139</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8537998199462891</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8923359513282776</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1642850637435913</v>
+        <v>0.001485033426433802</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8579308986663818</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.866412341594696</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2572047412395477</v>
+        <v>7.193487545009702e-05</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9067189693450928</v>
       </c>
       <c r="V76" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8810732364654541</v>
       </c>
       <c r="W76" t="n">
-        <v>0.3090636134147644</v>
+        <v>0.0006577036110684276</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8593399524688721</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.8667056560516357</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2079848796129227</v>
+        <v>5.425358904176392e-05</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8497638702392578</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8606035113334656</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1129036694765091</v>
+        <v>0.0001174978169729002</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8608498573303223</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4041894972324371</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2304170429706573</v>
+        <v>0.208538681268692</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.91255784034729</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.3977048397064209</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1676723808050156</v>
+        <v>0.2650735974311829</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8637909889221191</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.540892481803894</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1039513126015663</v>
+        <v>0.1042634472250938</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5385940074920654</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.899665355682373</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01299074664711952</v>
+        <v>0.1303725242614746</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5259819030761719</v>
       </c>
       <c r="V83" t="n">
-        <v>0.531548023223877</v>
+        <v>0.5171198844909668</v>
       </c>
       <c r="W83" t="n">
-        <v>3.098169327131473e-05</v>
+        <v>7.853537681512535e-05</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5154139995574951</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.5067048668861389</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02710409462451935</v>
+        <v>7.584899140056223e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5165121555328369</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.8804205656051636</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0198080763220787</v>
+        <v>0.1324293315410614</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5327041149139404</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4957318902015686</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01492005586624146</v>
+        <v>0.001366945449262857</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5120220184326172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.513029932975769</v>
       </c>
       <c r="W87" t="n">
-        <v>0.07339831441640854</v>
+        <v>1.015891712086159e-06</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5036618709564209</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.399194061756134</v>
       </c>
       <c r="W88" t="n">
-        <v>1.681655703578144e-07</v>
+        <v>0.01091352291405201</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5049600601196289</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.4959621727466583</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02377162501215935</v>
+        <v>8.096197416307405e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5657618045806885</v>
       </c>
       <c r="V90" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4994121193885803</v>
       </c>
       <c r="W90" t="n">
-        <v>0.03406987339258194</v>
+        <v>0.004402280785143375</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5219128131866455</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4987484216690063</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0001578152441652492</v>
+        <v>0.0005365890101529658</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5200090408325195</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.4039196968078613</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0004475844616536051</v>
+        <v>0.01347673591226339</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5168218612670898</v>
       </c>
       <c r="V93" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8790668845176697</v>
       </c>
       <c r="W93" t="n">
-        <v>0.1812645047903061</v>
+        <v>0.1312214583158493</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5125842094421387</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.5076074600219727</v>
       </c>
       <c r="W94" t="n">
-        <v>0.003833933500573039</v>
+        <v>2.47680345637491e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5131239891052246</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.4952137470245361</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0004472137952689081</v>
+        <v>0.0003207767731510103</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5166869163513184</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4098609685897827</v>
       </c>
       <c r="W96" t="n">
-        <v>0.08719639480113983</v>
+        <v>0.01141178328543901</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5150530338287354</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4288914501667023</v>
       </c>
       <c r="W97" t="n">
-        <v>0.004160361830145121</v>
+        <v>0.007423818577080965</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5152809619903564</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8709328770637512</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01622709445655346</v>
+        <v>0.1264882832765579</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5159499645233154</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.3991738855838776</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02727849595248699</v>
+        <v>0.01363665238022804</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.51705002784729</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.4031307101249695</v>
       </c>
       <c r="W100" t="n">
-        <v>0.03007638268172741</v>
+        <v>0.01297761127352715</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5681569576263428</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8692448735237122</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0271492637693882</v>
+        <v>0.09065393358469009</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4116418361663818</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8772044777870178</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01346951257437468</v>
+        <v>0.2167485803365707</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3946218490600586</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.4888587296009064</v>
       </c>
       <c r="W103" t="n">
-        <v>0.03769638761878014</v>
+        <v>0.008880590088665485</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4080150127410889</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4095093905925751</v>
       </c>
       <c r="W104" t="n">
-        <v>0.008815367706120014</v>
+        <v>2.233165105280932e-06</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4136021137237549</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4036416709423065</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01002197526395321</v>
+        <v>9.921041782945395e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3843398094177246</v>
       </c>
       <c r="V106" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4228105843067169</v>
       </c>
       <c r="W106" t="n">
-        <v>0.01692381128668785</v>
+        <v>0.00148000055924058</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4400668144226074</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.3993249833583832</v>
       </c>
       <c r="W107" t="n">
-        <v>0.001342397066764534</v>
+        <v>0.001659896806813776</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3817679882049561</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.5131468772888184</v>
       </c>
       <c r="W108" t="n">
-        <v>0.0254795104265213</v>
+        <v>0.01726041175425053</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3935270309448242</v>
       </c>
       <c r="V109" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4839681386947632</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0003292148758191615</v>
+        <v>0.008179593831300735</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3860769271850586</v>
       </c>
       <c r="V110" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4116503596305847</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02197736874222755</v>
+        <v>0.0006540004396811128</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3852458000183105</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.4880419373512268</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01414720434695482</v>
+        <v>0.01056704577058554</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4040000438690186</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.5011625289916992</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01535914186388254</v>
+        <v>0.009440548717975616</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3897950649261475</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8640268445014954</v>
       </c>
       <c r="W113" t="n">
-        <v>8.205245649151038e-06</v>
+        <v>0.2248957753181458</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3831589221954346</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8642669320106506</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0170617401599884</v>
+        <v>0.2314649224281311</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.38301682472229</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.3975436091423035</v>
       </c>
       <c r="W115" t="n">
-        <v>0.07828427106142044</v>
+        <v>0.0002110274654114619</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3899860382080078</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4030199348926544</v>
       </c>
       <c r="W116" t="n">
-        <v>0.02956478856503963</v>
+        <v>0.0001698824635241181</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3903141021728516</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.5133444666862488</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01527504622936249</v>
+        <v>0.01513647101819515</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4062001705169678</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8745962977409363</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02383748069405556</v>
+        <v>0.2193949371576309</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3827722072601318</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.8742252588272095</v>
       </c>
       <c r="W119" t="n">
-        <v>0.08988792449235916</v>
+        <v>0.2415260970592499</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4353110790252686</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4936653971672058</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0009598909527994692</v>
+        <v>0.003405226394534111</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3870539665222168</v>
       </c>
       <c r="V121" t="n">
-        <v>0.541418194770813</v>
+        <v>0.4985658824443817</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02382831461727619</v>
+        <v>0.01243490725755692</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8736557960510254</v>
       </c>
       <c r="V122" t="n">
-        <v>0.466268926858902</v>
+        <v>0.5132201910018921</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1659640669822693</v>
+        <v>0.1299138218164444</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9225528240203857</v>
       </c>
       <c r="V123" t="n">
-        <v>0.375304102897644</v>
+        <v>0.3975152969360352</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2994811534881592</v>
+        <v>0.2756644189357758</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9412758350372314</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.397522896528244</v>
       </c>
       <c r="W124" t="n">
-        <v>0.08088599890470505</v>
+        <v>0.2956672310829163</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8774721622467041</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4974467158317566</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1156122609972954</v>
+        <v>0.1444193422794342</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8695919513702393</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8745595812797546</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1334304660558701</v>
+        <v>2.467734702804592e-05</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8632478713989258</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8913357853889465</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2334378510713577</v>
+        <v>0.0007889309199526906</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9156429767608643</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.4029497504234314</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2916412949562073</v>
+        <v>0.2628543376922607</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8555259704589844</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.3975334763526917</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2041943073272705</v>
+        <v>0.2097571194171906</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8709549903869629</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.8582448363304138</v>
       </c>
       <c r="W130" t="n">
-        <v>0.03550324216485023</v>
+        <v>0.0001615480141481385</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8579151630401611</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4116834998130798</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1001967415213585</v>
+        <v>0.1991226971149445</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9104230403900146</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.5089098215103149</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1649948954582214</v>
+        <v>0.1612128615379333</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8818509578704834</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.9004177451133728</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1433393210172653</v>
+        <v>0.000344725587638095</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8586859703063965</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.8608998656272888</v>
       </c>
       <c r="W134" t="n">
-        <v>0.103459969162941</v>
+        <v>4.901332431472838e-06</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8762311935424805</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.4040736854076385</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1394724100828171</v>
+        <v>0.2229327112436295</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9248521327972412</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4027173519134521</v>
       </c>
       <c r="W136" t="n">
-        <v>0.01366008445620537</v>
+        <v>0.2726247310638428</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8648381233215332</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.899486780166626</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2625609934329987</v>
+        <v>0.001200529397465289</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8571901321411133</v>
       </c>
       <c r="V138" t="n">
-        <v>0.672019362449646</v>
+        <v>0.4909832775592804</v>
       </c>
       <c r="W138" t="n">
-        <v>0.03428821265697479</v>
+        <v>0.1341074556112289</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8638780117034912</v>
       </c>
       <c r="V139" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4100833535194397</v>
       </c>
       <c r="W139" t="n">
-        <v>0.007054736837744713</v>
+        <v>0.2059295922517776</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9216220378875732</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4187437891960144</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1744775176048279</v>
+        <v>0.2528865337371826</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8655240535736084</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.858471155166626</v>
       </c>
       <c r="W141" t="n">
-        <v>0.150468647480011</v>
+        <v>4.974337571184151e-05</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5325958728790283</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.494790256023407</v>
       </c>
       <c r="W142" t="n">
-        <v>0.1711288392543793</v>
+        <v>0.001429264666512609</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5176129341125488</v>
       </c>
       <c r="V143" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.8689707517623901</v>
       </c>
       <c r="W143" t="n">
-        <v>0.1804619580507278</v>
+        <v>0.1234523132443428</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5196959972381592</v>
       </c>
       <c r="V144" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.5504381060600281</v>
       </c>
       <c r="W144" t="n">
-        <v>0.17874376475811</v>
+        <v>0.0009450772777199745</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5674209594726562</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4010378122329712</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0006778062670491636</v>
+        <v>0.02768335118889809</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5182461738586426</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8869621753692627</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0002705844526644796</v>
+        <v>0.1359514892101288</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5299820899963379</v>
       </c>
       <c r="V147" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4952915012836456</v>
       </c>
       <c r="W147" t="n">
-        <v>0.1732172220945358</v>
+        <v>0.001203436986543238</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5291609764099121</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.4098878502845764</v>
       </c>
       <c r="W148" t="n">
-        <v>6.322442641248927e-05</v>
+        <v>0.01422607898712158</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8813946843147278</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0006034969119355083</v>
+        <v>0.1329373419284821</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5125491619110107</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.4937451481819153</v>
       </c>
       <c r="W150" t="n">
-        <v>0.02011083625257015</v>
+        <v>0.0003535909345373511</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5128631591796875</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4235143065452576</v>
       </c>
       <c r="W151" t="n">
-        <v>0.002174951368942857</v>
+        <v>0.007983217015862465</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5138688087463379</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8739768862724304</v>
       </c>
       <c r="W152" t="n">
-        <v>7.901468279669643e-08</v>
+        <v>0.1296778321266174</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8622851967811584</v>
       </c>
       <c r="W153" t="n">
-        <v>0.003597003873437643</v>
+        <v>0.1192791983485222</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5151340961456299</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8641118407249451</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01951530575752258</v>
+        <v>0.121785469353199</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5114359855651855</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.5004864931106567</v>
       </c>
       <c r="W155" t="n">
-        <v>0.002420493168756366</v>
+        <v>0.0001198913814732805</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5672039985656738</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4020909070968628</v>
       </c>
       <c r="W156" t="n">
-        <v>0.00600005965679884</v>
+        <v>0.02726233378052711</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5139780044555664</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.3975447714328766</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0001164457644335926</v>
+        <v>0.01355669740587473</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5202128887176514</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5262705087661743</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01773434691131115</v>
+        <v>3.669476063805632e-05</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5174028873443604</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.3975948095321655</v>
       </c>
       <c r="W159" t="n">
-        <v>0.02789954096078873</v>
+        <v>0.01435397565364838</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.517078161239624</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8980023264884949</v>
       </c>
       <c r="W160" t="n">
-        <v>0.02735941670835018</v>
+        <v>0.1451032161712646</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5246851444244385</v>
       </c>
       <c r="V161" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.4987944960594177</v>
       </c>
       <c r="W161" t="n">
-        <v>0.1777321696281433</v>
+        <v>0.0006703256512992084</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3922491073608398</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8733325600624084</v>
       </c>
       <c r="W162" t="n">
-        <v>0.01965741626918316</v>
+        <v>0.2314412891864777</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3899219036102295</v>
       </c>
       <c r="V163" t="n">
-        <v>0.654166579246521</v>
+        <v>0.3991717398166656</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06982524693012238</v>
+        <v>8.55594698805362e-05</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3867809772491455</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.4010901153087616</v>
       </c>
       <c r="W164" t="n">
-        <v>0.00129661476239562</v>
+        <v>0.0002047514281002805</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3911268711090088</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.5131899118423462</v>
       </c>
       <c r="W165" t="n">
-        <v>0.00757599389180541</v>
+        <v>0.01489938609302044</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3830370903015137</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8888059854507446</v>
       </c>
       <c r="W166" t="n">
-        <v>0.07386250048875809</v>
+        <v>0.255802184343338</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3917679786682129</v>
       </c>
       <c r="V167" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.5157294869422913</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1739936470985413</v>
+        <v>0.015366455540061</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3826639652252197</v>
       </c>
       <c r="V168" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8915441036224365</v>
       </c>
       <c r="W168" t="n">
-        <v>0.1772046685218811</v>
+        <v>0.2589589953422546</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3930690288543701</v>
       </c>
       <c r="V169" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.4912086427211761</v>
       </c>
       <c r="W169" t="n">
-        <v>0.1521996855735779</v>
+        <v>0.009631384164094925</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3894410133361816</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8668468594551086</v>
       </c>
       <c r="W170" t="n">
-        <v>0.08593961596488953</v>
+        <v>0.227916345000267</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3869819641113281</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4030044078826904</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0001308860810240731</v>
+        <v>0.0002567187184467912</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3998539447784424</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4927635490894318</v>
       </c>
       <c r="W172" t="n">
-        <v>1.394292303302791e-05</v>
+        <v>0.008632194250822067</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3850870132446289</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.3975105583667755</v>
       </c>
       <c r="W173" t="n">
-        <v>0.3209155797958374</v>
+        <v>0.0001543444668641314</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4390518665313721</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.4028907120227814</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001521056168712676</v>
+        <v>0.00130762904882431</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3930079936981201</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.4864180684089661</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001782842678949237</v>
+        <v>0.008725441992282867</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3845539093017578</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8727071285247803</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01423912029713392</v>
+        <v>0.2382935583591461</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.3973619937896729</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8913421034812927</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002169178798794746</v>
+        <v>0.2440163493156433</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3930091857910156</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4928852021694183</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0001466570247430354</v>
+        <v>0.009975218214094639</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3918261528015137</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8786190748214722</v>
       </c>
       <c r="W179" t="n">
-        <v>0.06306890398263931</v>
+        <v>0.2369673550128937</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4351451396942139</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8747504353523254</v>
       </c>
       <c r="W180" t="n">
-        <v>0.06928882002830505</v>
+        <v>0.1932528167963028</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.409466028213501</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.888247013092041</v>
       </c>
       <c r="W181" t="n">
-        <v>0.08298684656620026</v>
+        <v>0.2292312383651733</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8682320117950439</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8601575493812561</v>
       </c>
       <c r="W182" t="n">
-        <v>0.05114815384149551</v>
+        <v>6.519694579765201e-05</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9088780879974365</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.4133279919624329</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1560198962688446</v>
+        <v>0.2455698996782303</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8797550201416016</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.3975191712379456</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1172323375940323</v>
+        <v>0.2325514107942581</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8760921955108643</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.4055851697921753</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1311082988977432</v>
+        <v>0.2213768661022186</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.86456298828125</v>
       </c>
       <c r="V186" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4023525714874268</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1070559769868851</v>
+        <v>0.2136384695768356</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8663771152496338</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4968945384025574</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1101817488670349</v>
+        <v>0.1365173757076263</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8641040325164795</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.3991309702396393</v>
       </c>
       <c r="W188" t="n">
-        <v>0.09187733381986618</v>
+        <v>0.2161999493837357</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8620679378509521</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4031365215778351</v>
       </c>
       <c r="W189" t="n">
-        <v>0.07480542361736298</v>
+        <v>0.2106180489063263</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8663761615753174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.656647801399231</v>
+        <v>0.5175457000732422</v>
       </c>
       <c r="W190" t="n">
-        <v>0.04398598521947861</v>
+        <v>0.1216826885938644</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8930869102478027</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.879857063293457</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1958541721105576</v>
+        <v>0.0001750288502080366</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8557498455047607</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.4040930271148682</v>
       </c>
       <c r="W192" t="n">
-        <v>0.0251652579754591</v>
+        <v>0.2039938867092133</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8668379783630371</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.8617472648620605</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2145997732877731</v>
+        <v>2.591536394902505e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8626399040222168</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.5079630017280579</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2619967758655548</v>
+        <v>0.1257957071065903</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8627820014953613</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.496963769197464</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1274675577878952</v>
+        <v>0.1338229775428772</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8614740371704102</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.5165352821350098</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1687640398740768</v>
+        <v>0.1189827471971512</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8652498722076416</v>
       </c>
       <c r="V197" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4021683633327484</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2391985356807709</v>
+        <v>0.214444488286972</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8674049377441406</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.4217599928379059</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2420901358127594</v>
+        <v>0.1985994130373001</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.8747223019599915</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08295408636331558</v>
+        <v>0.0001421156484866515</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8531899452209473</v>
       </c>
       <c r="V200" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8747745156288147</v>
       </c>
       <c r="W200" t="n">
-        <v>0.008261023089289665</v>
+        <v>0.0004658936813939363</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4106317162513733</v>
       </c>
       <c r="W201" t="n">
-        <v>0.04063023999333382</v>
+        <v>0.2250442653894424</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.518841028213501</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8637554049491882</v>
       </c>
       <c r="W202" t="n">
-        <v>0.004859104286879301</v>
+        <v>0.1189659237861633</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5061159133911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5164459943771362</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01828881539404392</v>
+        <v>0.0001067105768015608</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5234968662261963</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.4226350784301758</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0003727586299646646</v>
+        <v>0.01017310004681349</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5126559734344482</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.399123877286911</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01731433905661106</v>
+        <v>0.01288953702896833</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5182609558105469</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.3991348147392273</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02750027552247047</v>
+        <v>0.0141910370439291</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5213098526000977</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.4037392735481262</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01383488997817039</v>
+        <v>0.01382284145802259</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5172619819641113</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.8628031015396118</v>
       </c>
       <c r="W208" t="n">
-        <v>0.02787796035408974</v>
+        <v>0.1193986684083939</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5335760116577148</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4912137985229492</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01689343713223934</v>
+        <v>0.001794557087123394</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.515449047088623</v>
       </c>
       <c r="V210" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4235809445381165</v>
       </c>
       <c r="W210" t="n">
-        <v>0.07173138111829758</v>
+        <v>0.008439748547971249</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5734670162200928</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.5076989531517029</v>
       </c>
       <c r="W211" t="n">
-        <v>0.03937257453799248</v>
+        <v>0.004325438290834427</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5208618640899658</v>
       </c>
       <c r="V212" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8717678189277649</v>
       </c>
       <c r="W212" t="n">
-        <v>0.1854101419448853</v>
+        <v>0.1231349855661392</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5110840797424316</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4124675989151001</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01154140569269657</v>
+        <v>0.009725210256874561</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5148739814758301</v>
       </c>
       <c r="V214" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.4970011115074158</v>
       </c>
       <c r="W214" t="n">
-        <v>0.1873100101947784</v>
+        <v>0.0003194394812453538</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5222499370574951</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4036535620689392</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02830732800066471</v>
+        <v>0.0140650998800993</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5418360233306885</v>
       </c>
       <c r="V216" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.3975035548210144</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0258517749607563</v>
+        <v>0.02083186060190201</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.515923023223877</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.86075758934021</v>
       </c>
       <c r="W217" t="n">
-        <v>0.08372640609741211</v>
+        <v>0.1189108788967133</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5280001163482666</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.3975200355052948</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02389578707516193</v>
+        <v>0.017025051638484</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5219769477844238</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.5130525827407837</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02930645272135735</v>
+        <v>7.964429096318781e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5206429958343506</v>
       </c>
       <c r="V220" t="n">
-        <v>0.504324197769165</v>
+        <v>0.5020989775657654</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0002663031627889723</v>
+        <v>0.0003438806161284447</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.518092155456543</v>
       </c>
       <c r="V221" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4106764495372772</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02376340143382549</v>
+        <v>0.01153813395649195</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4146270751953125</v>
       </c>
       <c r="V222" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4984452724456787</v>
       </c>
       <c r="W222" t="n">
-        <v>0.004118160344660282</v>
+        <v>0.007025490049272776</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3879330158233643</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4226005971431732</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0301518477499485</v>
+        <v>0.001201841165311635</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3930668830871582</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.3974941968917847</v>
       </c>
       <c r="W224" t="n">
-        <v>0.03350107371807098</v>
+        <v>1.960110785148572e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3895318508148193</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.5088246464729309</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0001911347208078951</v>
+        <v>0.01423077099025249</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3918609619140625</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.5180220603942871</v>
       </c>
       <c r="W226" t="n">
-        <v>0.06210194155573845</v>
+        <v>0.0159166231751442</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3962280750274658</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4947537779808044</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01169416774064302</v>
+        <v>0.00970731396228075</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4477319717407227</v>
       </c>
       <c r="V228" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4879922270774841</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1390143185853958</v>
+        <v>0.001620888127945364</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.404620885848999</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.4977754354476929</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01689756661653519</v>
+        <v>0.008677770383656025</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3943550586700439</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.8771821856498718</v>
       </c>
       <c r="W230" t="n">
-        <v>8.698615420144051e-05</v>
+        <v>0.2331220358610153</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3890430927276611</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4030328094959259</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0002135398390237242</v>
+        <v>0.0001957121712621301</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4087469577789307</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8728482723236084</v>
       </c>
       <c r="W232" t="n">
-        <v>0.03666862472891808</v>
+        <v>0.2153900265693665</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.459446907043457</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.5130854249000549</v>
       </c>
       <c r="W233" t="n">
-        <v>0.03377187252044678</v>
+        <v>0.002877090591937304</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4955809116363525</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.487779974937439</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01268261950463057</v>
+        <v>6.085461427574046e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4141709804534912</v>
       </c>
       <c r="V235" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8671136498451233</v>
       </c>
       <c r="W235" t="n">
-        <v>0.001889987732283771</v>
+        <v>0.2051570564508438</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.42547607421875</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.493184357881546</v>
       </c>
       <c r="W236" t="n">
-        <v>0.07435856759548187</v>
+        <v>0.00458441162481904</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3848140239715576</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.8582939505577087</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06618010997772217</v>
+        <v>0.2241832464933395</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.38555908203125</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8993294835090637</v>
       </c>
       <c r="W238" t="n">
-        <v>0.06602778285741806</v>
+        <v>0.2639600336551666</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3895440101623535</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.4114696681499481</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0001981252280529588</v>
+        <v>0.0004807344812434167</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.399630069732666</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8680497407913208</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0687098354101181</v>
+        <v>0.2194169908761978</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4002130031585693</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.8700032234191895</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1655102223157883</v>
+        <v>0.2207028567790985</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8866128921508789</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.8610259294509888</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2871209681034088</v>
+        <v>0.0006546926451846957</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8982641696929932</v>
       </c>
       <c r="V243" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.3975321352481842</v>
       </c>
       <c r="W243" t="n">
-        <v>0.002088387729600072</v>
+        <v>0.2507326006889343</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8848788738250732</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8590237498283386</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1374827474355698</v>
+        <v>0.0006684874533675611</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.888768196105957</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.4915834665298462</v>
       </c>
       <c r="W245" t="n">
-        <v>0.09725009649991989</v>
+        <v>0.1577557027339935</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8687000274658203</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3975278437137604</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1069762632250786</v>
+        <v>0.2220032215118408</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9648301601409912</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.8641639351844788</v>
       </c>
       <c r="W247" t="n">
-        <v>0.09489937871694565</v>
+        <v>0.01013368926942348</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8653190135955811</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4879969954490662</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1076699644327164</v>
+        <v>0.1423719078302383</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9004149436950684</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4938134253025055</v>
       </c>
       <c r="W249" t="n">
-        <v>0.3003298342227936</v>
+        <v>0.165324792265892</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8592770099639893</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4037177562713623</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1194568797945976</v>
+        <v>0.2075342386960983</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8892190456390381</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8639312386512756</v>
       </c>
       <c r="W251" t="n">
-        <v>0.00629526749253273</v>
+        <v>0.0006394732045009732</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.889707088470459</v>
       </c>
       <c r="V252" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4011264443397522</v>
       </c>
       <c r="W252" t="n">
-        <v>0.01115765515714884</v>
+        <v>0.2387110441923141</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8901798725128174</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4911249876022339</v>
       </c>
       <c r="W253" t="n">
-        <v>0.141113668680191</v>
+        <v>0.1592448055744171</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8699448108673096</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8634046316146851</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1079553514719009</v>
+        <v>4.277394327800721e-05</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8666360378265381</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8727394342422485</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2356813251972198</v>
+        <v>3.72514477930963e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9057080745697021</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4224176108837128</v>
       </c>
       <c r="W256" t="n">
-        <v>0.06879723072052002</v>
+        <v>0.2335696667432785</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8726089000701904</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.880848228931427</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1351808309555054</v>
+        <v>6.788653990952298e-05</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8599560260772705</v>
       </c>
       <c r="V258" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4041743874549866</v>
       </c>
       <c r="W258" t="n">
-        <v>0.005844163708388805</v>
+        <v>0.2077369093894958</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8752288818359375</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.4221111238002777</v>
       </c>
       <c r="W259" t="n">
-        <v>0.04119504243135452</v>
+        <v>0.2053157091140747</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9284148216247559</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.8720359802246094</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1811218112707138</v>
+        <v>0.003178573679178953</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8699889183044434</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.5131989717483521</v>
       </c>
       <c r="W261" t="n">
-        <v>0.0790909007191658</v>
+        <v>0.1272990703582764</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5303249359130859</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4234814643859863</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0002525167947169393</v>
+        <v>0.01141552720218897</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5547659397125244</v>
       </c>
       <c r="V263" t="n">
-        <v>0.65655517578125</v>
+        <v>0.48940709233284</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01036104839295149</v>
+        <v>0.004271778743714094</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5241129398345947</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4930583834648132</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0001059140922734514</v>
+        <v>0.0009643854573369026</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5815720558166504</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.3975281417369843</v>
       </c>
       <c r="W265" t="n">
-        <v>0.00667448528110981</v>
+        <v>0.03387216106057167</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5247659683227539</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4235984086990356</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01733796112239361</v>
+        <v>0.01023487467318773</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5425310134887695</v>
       </c>
       <c r="V267" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4244357347488403</v>
       </c>
       <c r="W267" t="n">
-        <v>1.490407157689333e-06</v>
+        <v>0.01394649501889944</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5219049453735352</v>
       </c>
       <c r="V268" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.402961403131485</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02939879894256592</v>
+        <v>0.01414756663143635</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5171370506286621</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.3975842297077179</v>
       </c>
       <c r="W269" t="n">
-        <v>0.001560798496939242</v>
+        <v>0.0142928771674633</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.521557092666626</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.5131855607032776</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02916368283331394</v>
+        <v>7.008254760876298e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5325229167938232</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.8609635233879089</v>
       </c>
       <c r="W271" t="n">
-        <v>0.03302964940667152</v>
+        <v>0.1078732311725616</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5438649654388428</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.3975762724876404</v>
       </c>
       <c r="W272" t="n">
-        <v>0.00176646385807544</v>
+        <v>0.02140038087964058</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5193400382995605</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5407698750495911</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01337860338389874</v>
+        <v>0.0004592378973029554</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5411560535430908</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.8917412161827087</v>
       </c>
       <c r="W274" t="n">
-        <v>0.07231524586677551</v>
+        <v>0.1229099556803703</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5221030712127686</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8621472120285034</v>
       </c>
       <c r="W275" t="n">
-        <v>4.612085831467994e-05</v>
+        <v>0.1156300157308578</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.571307897567749</v>
       </c>
       <c r="V276" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8477330803871155</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0562155656516552</v>
+        <v>0.07641088217496872</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.519752025604248</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8846513032913208</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0002227236982434988</v>
+        <v>0.1331514865159988</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5181660652160645</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8610036969184875</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0003576937015168369</v>
+        <v>0.1175376400351524</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5186748504638672</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4219852685928345</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0001831161789596081</v>
+        <v>0.009348874911665916</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5118470191955566</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4042184948921204</v>
       </c>
       <c r="W280" t="n">
-        <v>7.060846110107377e-05</v>
+        <v>0.01158389914780855</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5200009346008301</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8661420941352844</v>
       </c>
       <c r="W281" t="n">
-        <v>3.221191582269967e-05</v>
+        <v>0.1198137030005455</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4067981243133545</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.8701156973838806</v>
       </c>
       <c r="W282" t="n">
-        <v>0.08438127487897873</v>
+        <v>0.214663177728653</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3972511291503906</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8655894994735718</v>
       </c>
       <c r="W283" t="n">
-        <v>0.01805118843913078</v>
+        <v>0.2193408310413361</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3987851142883301</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5131730437278748</v>
       </c>
       <c r="W284" t="n">
-        <v>9.529934322927147e-05</v>
+        <v>0.01308459881693125</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3904919624328613</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8724106550216675</v>
       </c>
       <c r="W285" t="n">
-        <v>0.06318637728691101</v>
+        <v>0.2322456240653992</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3974740505218506</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.3991916477680206</v>
       </c>
       <c r="W286" t="n">
-        <v>0.017013194039464</v>
+        <v>2.950140242319321e-06</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3979330062866211</v>
       </c>
       <c r="V287" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4984316229820251</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1698897480964661</v>
+        <v>0.01009997166693211</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3974449634552002</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4110943078994751</v>
       </c>
       <c r="W288" t="n">
-        <v>0.02069706656038761</v>
+        <v>0.0001863046054495499</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4038360118865967</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4896034002304077</v>
       </c>
       <c r="W289" t="n">
-        <v>4.488665439339456e-08</v>
+        <v>0.007356044836342335</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3921170234680176</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4876861274242401</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0149785615503788</v>
+        <v>0.009133453480899334</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3896939754486084</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4989709556102753</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1748891621828079</v>
+        <v>0.01194145809859037</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3986268043518066</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8713757991790771</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01366051658987999</v>
+        <v>0.2234916090965271</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3971590995788574</v>
       </c>
       <c r="V293" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.884915828704834</v>
       </c>
       <c r="W293" t="n">
-        <v>0.1624378263950348</v>
+        <v>0.2379066199064255</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4373650550842285</v>
       </c>
       <c r="V294" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4979958832263947</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1200942471623421</v>
+        <v>0.003676097374409437</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3938009738922119</v>
       </c>
       <c r="V295" t="n">
-        <v>0.350296825170517</v>
+        <v>0.8576732277870178</v>
       </c>
       <c r="W295" t="n">
-        <v>0.001892610918730497</v>
+        <v>0.2151774615049362</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3932690620422363</v>
       </c>
       <c r="V296" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.5141468644142151</v>
       </c>
       <c r="W296" t="n">
-        <v>0.0005094109219498932</v>
+        <v>0.01461144350469112</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3964509963989258</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4897717237472534</v>
       </c>
       <c r="W297" t="n">
-        <v>5.118508488521911e-05</v>
+        <v>0.008708758279681206</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3948540687561035</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.5467644929885864</v>
       </c>
       <c r="W298" t="n">
-        <v>0.006879876367747784</v>
+        <v>0.02307677641510963</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3974549770355225</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.5080721974372864</v>
       </c>
       <c r="W299" t="n">
-        <v>0.002834802493453026</v>
+        <v>0.01223616953939199</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4467239379882812</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4010894894599915</v>
       </c>
       <c r="W300" t="n">
-        <v>0.05560834333300591</v>
+        <v>0.00208250293508172</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982679843902588</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.857994556427002</v>
       </c>
       <c r="W301" t="n">
-        <v>0.05931442603468895</v>
+        <v>0.2113485187292099</v>
       </c>
     </row>
     <row r="302" spans="1:23">
